--- a/Base/src/main/resources/templates/format1.xlsx
+++ b/Base/src/main/resources/templates/format1.xlsx
@@ -3,34 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Workspace-famstack\bops\Base\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11250" windowHeight="1845"/>
   </bookViews>
   <sheets>
-    <sheet name="VS team - Namratta" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Reporting" sheetId="1" r:id="rId1"/>
     <sheet name="Emp Utilization" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"># of Users </t>
   </si>
   <si>
-    <t>Visual Services</t>
-  </si>
-  <si>
     <t>Resource names</t>
   </si>
   <si>
     <t>Month</t>
-  </si>
-  <si>
-    <t>Project Reporting Template</t>
   </si>
   <si>
     <t>Project code</t>
@@ -113,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,33 +126,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -191,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -212,15 +193,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,7 +521,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,13 +539,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -577,54 +555,52 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -746,8 +722,8 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
-        <v>15</v>
+      <c r="A4" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Base/src/main/resources/templates/format1.xlsx
+++ b/Base/src/main/resources/templates/format1.xlsx
@@ -2,63 +2,71 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Workspace-famstack\bops\Base\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11250" windowHeight="1845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Reporting" sheetId="1" r:id="rId1"/>
-    <sheet name="Emp Utilization" sheetId="3" r:id="rId2"/>
+    <sheet name="Project Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Emp Utilization" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve"># of Users </t>
-  </si>
-  <si>
-    <t>Resource names</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Project code</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>PO ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Read Me</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Productivity Type</t>
+  </si>
+  <si>
+    <t>Project Type</t>
+  </si>
+  <si>
+    <t>Task Type</t>
+  </si>
+  <si>
+    <t>Client BU</t>
+  </si>
+  <si>
+    <t>Client POC</t>
+  </si>
+  <si>
+    <t>Requestor</t>
   </si>
   <si>
     <t>Project Name</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Sub Team</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Hours Spent</t>
+  </si>
+  <si>
+    <t>Utilization</t>
+  </si>
+  <si>
+    <t>Analyst Comments</t>
   </si>
   <si>
     <t>Employees</t>
@@ -68,7 +76,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,25 +90,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Segoe UI "/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="22"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,7 +129,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,21 +161,48 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color theme="5" tint="0.39994506668294322"/>
+      </left>
+      <right style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color theme="5" tint="0.39997558519241921"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right style="hair">
         <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="medium">
+        <color theme="5" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -169,42 +217,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -218,6 +260,89 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50006</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>752476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image result for blueocean market intelligence"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="000000"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="000000">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="32001" b="28751"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="135731" y="107156"/>
+          <a:ext cx="1893094" cy="645320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -237,7 +362,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -249,7 +374,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -266,9 +391,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -296,31 +421,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -348,23 +456,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,194 +608,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
+      <c r="N3" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
+      <formula1>IF(AND(#REF!=0),0)</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Date format is mm-dd-yy" sqref="B3">
+      <formula1>42339</formula1>
+      <formula2>43099</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N1" location="'Read Me'!A1" display="Read Me"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -716,14 +732,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
